--- a/Resource/剧本/play_1.xlsx
+++ b/Resource/剧本/play_1.xlsx
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>我们到了的时候，吴安一行人已经到了，紧接着二房姑姑一家正在张罗着泡茶接待，我们也坐下喝茶等着三房的到来。很快三房也到了。</t>
-  </si>
-  <si>
-    <t>待我们休息得差不多了，吴安便拿着个小匣子出来，匣子里面有三个包裹，他随意拿起一个给了我，剩下两个分别给了二房及三房。紧接着，他便仿若完成了某项大工程一样，长长舒了一口气说道：“现下，我便算完成了任务，接下来就看各位的造化了。”匣子被他随手摆放在茶几桌上，他便坐下继续喝茶，看来接下来的一切他都不打算参与了。</t>
-  </si>
-  <si>
-    <t>我思索片刻，决定还是打开包裹看看，包裹的最上方有一张薄薄的宣纸，上面学着一首诗：</t>
   </si>
   <si>
     <t>这首诗一定是想告诉我们从哪里开始找起，但是，究竟是哪里呢？</t>
@@ -113,9 +107,6 @@
   </si>
   <si>
     <t>敬启者！</t>
-  </si>
-  <si>
-    <t>我是黄mm，从小我就在东南亚出生长大，从小家里长辈就告诉我，我们的根在闽南，不能忘本，从小我们家的小孩子也都要学会讲闽南话，家里沟通的时候都讲闽南话，但是我从来不相信长辈说的不忘本，毕竟二十几年了，我从来没来过闽南，也不见长辈们回来过一次，他们肯定都是怕回来后手中好不容易争来的权利就被夺走了吧，不然这次来信也不会派我这么个“小屁孩”带队回来了吧。</t>
   </si>
   <si>
     <t>answer</t>
@@ -230,11 +221,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>align</t>
+    <t>待我们休息得差不多了，吴安便拿着个小匣子出来，匣子里面有三个包裹，他随意拿起一个给了我，剩下两个分别给了二房及三房。紧接着，他便仿若完成了某项大工程一样，长长舒了一口气说道：“现下，我便算完成了任务，接下来就看各位的造化了。”匣子被他随手摆放在茶几桌上，他便坐下继续喝茶，看来接下来的一切他都不打算参与了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1左对齐2居中3右对齐</t>
+    <t>我思索片刻，决定还是打开包裹看看，包裹的最上方有一张薄薄的宣纸，上面学着一首诗：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是黄mm，从小我就在东南亚出生长大，从小家里长辈就告诉我，我们的根在闽南，不能忘本，从小我们家的小孩子也都要学会讲闽南话，家里沟通的时候都讲闽南话，但是我从来不相信长辈说的不忘本，毕竟二十几年了，我从来没来过闽南，也不见长辈们回来过一次，他们肯定都是怕回来后手中好不容易争来的权利就被夺走了吧，不然这次来信也不会派我这么个“小屁孩”带队回来了吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0左对齐1居中2右对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>align</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:G52"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -642,11 +645,12 @@
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="14.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="38.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="13" style="8" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="8" max="8" width="103.125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" customHeight="1">
@@ -654,22 +658,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -708,19 +712,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -750,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -768,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -798,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -846,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -894,10 +898,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
@@ -912,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -942,10 +946,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -960,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -990,10 +994,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -1008,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1038,10 +1042,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -1056,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1086,10 +1090,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -1104,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1134,10 +1138,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -1180,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -1198,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1228,10 +1232,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -1246,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1276,10 +1280,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -1294,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1324,10 +1328,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -1342,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1372,10 +1376,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -1390,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1420,10 +1424,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6">
         <v>3</v>
@@ -1438,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1468,10 +1472,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -1516,10 +1520,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="6">
         <v>3</v>
@@ -1564,10 +1568,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="6">
         <v>3</v>
@@ -1612,10 +1616,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6">
         <v>3</v>
@@ -1630,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1660,10 +1664,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D22" s="6">
         <v>3</v>
@@ -1678,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1708,10 +1712,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -1726,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1756,10 +1760,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -1774,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1804,10 +1808,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -1822,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1852,10 +1856,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -1870,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1900,10 +1904,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6">
         <v>3</v>
@@ -1918,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1948,10 +1952,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D28" s="6">
         <v>4</v>
@@ -1960,13 +1964,13 @@
         <v>-1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G28" s="9">
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1996,10 +2000,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -2014,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2044,10 +2048,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
@@ -2062,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2092,10 +2096,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D31" s="6">
         <v>4</v>
@@ -2104,13 +2108,13 @@
         <v>-1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2140,10 +2144,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -2158,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2188,10 +2192,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -2206,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2236,10 +2240,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
@@ -2254,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2284,10 +2288,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
@@ -2302,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2332,10 +2336,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
@@ -2350,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2380,10 +2384,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
@@ -2398,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2428,10 +2432,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
@@ -2446,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2476,10 +2480,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D39" s="6">
         <v>5</v>
@@ -2494,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2524,10 +2528,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
@@ -2542,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2572,10 +2576,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D41" s="6">
         <v>4</v>
@@ -2584,13 +2588,13 @@
         <v>-1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G41" s="9">
         <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2620,10 +2624,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -2638,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2668,10 +2672,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D43" s="6">
         <v>5</v>
@@ -2686,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2716,10 +2720,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -2734,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2764,10 +2768,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
@@ -2782,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2812,10 +2816,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D46" s="6">
         <v>2</v>
@@ -2830,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2860,10 +2864,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D47" s="6">
         <v>1</v>
@@ -2878,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2908,10 +2912,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
@@ -2926,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2956,10 +2960,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
@@ -2974,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -3004,10 +3008,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D50" s="6">
         <v>4</v>
@@ -3016,13 +3020,13 @@
         <v>-1</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G50" s="9">
         <v>1</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -3052,10 +3056,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D51" s="6">
         <v>1</v>
@@ -3070,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -3100,10 +3104,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
@@ -3118,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>

--- a/Resource/剧本/play_1.xlsx
+++ b/Resource/剧本/play_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>align</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belongs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD201"/>
+  <dimension ref="A1:AE201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -645,15 +649,15 @@
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="14.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="38.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="13" style="8" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="103.125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="7" max="8" width="12" style="8" customWidth="1"/>
+    <col min="9" max="9" width="110.625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" customHeight="1">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,10 +679,12 @@
       <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -700,8 +706,9 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" ht="17.25">
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" ht="17.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -723,10 +730,10 @@
       <c r="G2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -748,8 +755,9 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" ht="17.25">
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" ht="17.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -769,12 +777,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -796,8 +806,9 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" ht="42" customHeight="1">
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" ht="23.25" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -817,12 +828,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -844,8 +857,9 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" ht="27.75" customHeight="1">
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" ht="27.75" customHeight="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -865,12 +879,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -892,8 +908,9 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
-    </row>
-    <row r="6" spans="1:30" ht="17.25">
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:31" ht="17.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -915,10 +932,12 @@
       <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -940,8 +959,9 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-    </row>
-    <row r="7" spans="1:30" ht="17.25">
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:31" ht="17.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -961,12 +981,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -988,8 +1010,9 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-    </row>
-    <row r="8" spans="1:30" ht="17.25">
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="8" spans="1:31" ht="17.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1009,12 +1032,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1036,8 +1061,9 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-    </row>
-    <row r="9" spans="1:30" ht="17.25">
+      <c r="AE8" s="2"/>
+    </row>
+    <row r="9" spans="1:31" ht="17.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1057,12 +1083,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1084,8 +1112,9 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="1:30" ht="17.25">
+      <c r="AE9" s="2"/>
+    </row>
+    <row r="10" spans="1:31" ht="17.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1105,12 +1134,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1132,8 +1163,9 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-    </row>
-    <row r="11" spans="1:30" ht="17.25">
+      <c r="AE10" s="2"/>
+    </row>
+    <row r="11" spans="1:31" ht="17.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1153,10 +1185,12 @@
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1178,8 +1212,9 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:30" ht="17.25">
+      <c r="AE11" s="2"/>
+    </row>
+    <row r="12" spans="1:31" ht="17.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1199,12 +1234,14 @@
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1226,8 +1263,9 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:30" ht="17.25">
+      <c r="AE12" s="2"/>
+    </row>
+    <row r="13" spans="1:31" ht="17.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1247,12 +1285,14 @@
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1274,8 +1314,9 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-    </row>
-    <row r="14" spans="1:30" ht="17.25">
+      <c r="AE13" s="2"/>
+    </row>
+    <row r="14" spans="1:31" ht="17.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1295,12 +1336,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1322,8 +1365,9 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" ht="17.25">
+      <c r="AE14" s="2"/>
+    </row>
+    <row r="15" spans="1:31" ht="17.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1343,12 +1387,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1370,8 +1416,9 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" ht="17.25">
+      <c r="AE15" s="2"/>
+    </row>
+    <row r="16" spans="1:31" ht="17.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1391,12 +1438,14 @@
         <v>0</v>
       </c>
       <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1418,8 +1467,9 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" ht="17.25">
+      <c r="AE16" s="2"/>
+    </row>
+    <row r="17" spans="1:31" ht="17.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1439,12 +1489,14 @@
         <v>0</v>
       </c>
       <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1466,8 +1518,9 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-    </row>
-    <row r="18" spans="1:30" ht="17.25">
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="18" spans="1:31" ht="17.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1487,12 +1540,14 @@
         <v>0</v>
       </c>
       <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1514,8 +1569,9 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-    </row>
-    <row r="19" spans="1:30" ht="17.25">
+      <c r="AE18" s="2"/>
+    </row>
+    <row r="19" spans="1:31" ht="17.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1535,12 +1591,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1562,8 +1620,9 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" ht="17.25">
+      <c r="AE19" s="2"/>
+    </row>
+    <row r="20" spans="1:31" ht="17.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1583,12 +1642,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1610,8 +1671,9 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-    </row>
-    <row r="21" spans="1:30" ht="17.25">
+      <c r="AE20" s="2"/>
+    </row>
+    <row r="21" spans="1:31" ht="17.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1631,12 +1693,14 @@
         <v>0</v>
       </c>
       <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1658,8 +1722,9 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-    </row>
-    <row r="22" spans="1:30" ht="17.25">
+      <c r="AE21" s="2"/>
+    </row>
+    <row r="22" spans="1:31" ht="17.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1679,12 +1744,14 @@
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1706,8 +1773,9 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-    </row>
-    <row r="23" spans="1:30" ht="17.25">
+      <c r="AE22" s="2"/>
+    </row>
+    <row r="23" spans="1:31" ht="17.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1729,10 +1797,12 @@
       <c r="G23" s="9">
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="9">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1754,8 +1824,9 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
-    </row>
-    <row r="24" spans="1:30" ht="17.25">
+      <c r="AE23" s="2"/>
+    </row>
+    <row r="24" spans="1:31" ht="17.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1777,10 +1848,12 @@
       <c r="G24" s="9">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="9">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1802,8 +1875,9 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
-    </row>
-    <row r="25" spans="1:30" ht="17.25">
+      <c r="AE24" s="2"/>
+    </row>
+    <row r="25" spans="1:31" ht="17.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1825,10 +1899,12 @@
       <c r="G25" s="9">
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="9">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1850,8 +1926,9 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
-    </row>
-    <row r="26" spans="1:30" ht="17.25">
+      <c r="AE25" s="2"/>
+    </row>
+    <row r="26" spans="1:31" ht="17.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1873,10 +1950,12 @@
       <c r="G26" s="9">
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="9">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1898,8 +1977,9 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
-    </row>
-    <row r="27" spans="1:30" ht="17.25">
+      <c r="AE26" s="2"/>
+    </row>
+    <row r="27" spans="1:31" ht="17.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -1919,12 +1999,14 @@
         <v>0</v>
       </c>
       <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1946,8 +2028,9 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
-    </row>
-    <row r="28" spans="1:30" ht="17.25">
+      <c r="AE27" s="2"/>
+    </row>
+    <row r="28" spans="1:31" ht="17.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1967,12 +2050,14 @@
         <v>33</v>
       </c>
       <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1994,8 +2079,9 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
-    </row>
-    <row r="29" spans="1:30" ht="17.25">
+      <c r="AE28" s="2"/>
+    </row>
+    <row r="29" spans="1:31" ht="17.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -2015,12 +2101,14 @@
         <v>0</v>
       </c>
       <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2042,8 +2130,9 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
-    </row>
-    <row r="30" spans="1:30" ht="17.25">
+      <c r="AE29" s="2"/>
+    </row>
+    <row r="30" spans="1:31" ht="17.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -2063,12 +2152,14 @@
         <v>0</v>
       </c>
       <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2090,8 +2181,9 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
-    </row>
-    <row r="31" spans="1:30" ht="17.25">
+      <c r="AE30" s="2"/>
+    </row>
+    <row r="31" spans="1:31" ht="17.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -2111,12 +2203,14 @@
         <v>34</v>
       </c>
       <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2138,8 +2232,9 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
-    </row>
-    <row r="32" spans="1:30" ht="17.25">
+      <c r="AE31" s="2"/>
+    </row>
+    <row r="32" spans="1:31" ht="17.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -2159,12 +2254,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2186,8 +2283,9 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-    </row>
-    <row r="33" spans="1:30" ht="17.25">
+      <c r="AE32" s="2"/>
+    </row>
+    <row r="33" spans="1:31" ht="17.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -2207,12 +2305,14 @@
         <v>0</v>
       </c>
       <c r="G33" s="9">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2234,8 +2334,9 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
-    </row>
-    <row r="34" spans="1:30" ht="17.25">
+      <c r="AE33" s="2"/>
+    </row>
+    <row r="34" spans="1:31" ht="17.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -2255,12 +2356,14 @@
         <v>0</v>
       </c>
       <c r="G34" s="9">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2282,8 +2385,9 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
-    </row>
-    <row r="35" spans="1:30" ht="17.25">
+      <c r="AE34" s="2"/>
+    </row>
+    <row r="35" spans="1:31" ht="17.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -2303,12 +2407,14 @@
         <v>0</v>
       </c>
       <c r="G35" s="9">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2330,8 +2436,9 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
-    </row>
-    <row r="36" spans="1:30" ht="17.25">
+      <c r="AE35" s="2"/>
+    </row>
+    <row r="36" spans="1:31" ht="17.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -2351,12 +2458,14 @@
         <v>0</v>
       </c>
       <c r="G36" s="9">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2378,8 +2487,9 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
-    </row>
-    <row r="37" spans="1:30" ht="17.25">
+      <c r="AE36" s="2"/>
+    </row>
+    <row r="37" spans="1:31" ht="17.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -2399,12 +2509,14 @@
         <v>0</v>
       </c>
       <c r="G37" s="9">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2426,8 +2538,9 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
-    </row>
-    <row r="38" spans="1:30" ht="17.25">
+      <c r="AE37" s="2"/>
+    </row>
+    <row r="38" spans="1:31" ht="17.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -2447,12 +2560,14 @@
         <v>0</v>
       </c>
       <c r="G38" s="9">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2474,8 +2589,9 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
-    </row>
-    <row r="39" spans="1:30" ht="17.25">
+      <c r="AE38" s="2"/>
+    </row>
+    <row r="39" spans="1:31" ht="17.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -2495,12 +2611,14 @@
         <v>0</v>
       </c>
       <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2522,8 +2640,9 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
-    </row>
-    <row r="40" spans="1:30" ht="17.25">
+      <c r="AE39" s="2"/>
+    </row>
+    <row r="40" spans="1:31" ht="17.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -2543,12 +2662,14 @@
         <v>0</v>
       </c>
       <c r="G40" s="9">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2570,8 +2691,9 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
-    </row>
-    <row r="41" spans="1:30" ht="17.25">
+      <c r="AE40" s="2"/>
+    </row>
+    <row r="41" spans="1:31" ht="17.25">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -2591,12 +2713,14 @@
         <v>35</v>
       </c>
       <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -2618,8 +2742,9 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
-    </row>
-    <row r="42" spans="1:30" ht="17.25">
+      <c r="AE41" s="2"/>
+    </row>
+    <row r="42" spans="1:31" ht="17.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -2639,12 +2764,14 @@
         <v>0</v>
       </c>
       <c r="G42" s="9">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2666,8 +2793,9 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
-    </row>
-    <row r="43" spans="1:30" ht="17.25">
+      <c r="AE42" s="2"/>
+    </row>
+    <row r="43" spans="1:31" ht="17.25">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -2687,12 +2815,14 @@
         <v>0</v>
       </c>
       <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2714,8 +2844,9 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
-    </row>
-    <row r="44" spans="1:30" ht="17.25">
+      <c r="AE43" s="2"/>
+    </row>
+    <row r="44" spans="1:31" ht="17.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -2735,12 +2866,14 @@
         <v>0</v>
       </c>
       <c r="G44" s="9">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2762,8 +2895,9 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
-    </row>
-    <row r="45" spans="1:30" ht="17.25">
+      <c r="AE44" s="2"/>
+    </row>
+    <row r="45" spans="1:31" ht="17.25">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -2783,12 +2917,14 @@
         <v>10</v>
       </c>
       <c r="G45" s="9">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2810,8 +2946,9 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
-    </row>
-    <row r="46" spans="1:30" ht="17.25">
+      <c r="AE45" s="2"/>
+    </row>
+    <row r="46" spans="1:31" ht="17.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -2831,12 +2968,14 @@
         <v>0</v>
       </c>
       <c r="G46" s="9">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -2858,8 +2997,9 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
-    </row>
-    <row r="47" spans="1:30" ht="17.25">
+      <c r="AE46" s="2"/>
+    </row>
+    <row r="47" spans="1:31" ht="17.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -2879,12 +3019,14 @@
         <v>0</v>
       </c>
       <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -2906,8 +3048,9 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
-    </row>
-    <row r="48" spans="1:30" ht="17.25">
+      <c r="AE47" s="2"/>
+    </row>
+    <row r="48" spans="1:31" ht="17.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -2927,12 +3070,14 @@
         <v>0</v>
       </c>
       <c r="G48" s="9">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -2954,8 +3099,9 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
-    </row>
-    <row r="49" spans="1:30" ht="17.25">
+      <c r="AE48" s="2"/>
+    </row>
+    <row r="49" spans="1:31" ht="17.25">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -2975,12 +3121,14 @@
         <v>0</v>
       </c>
       <c r="G49" s="9">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -3002,8 +3150,9 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
-    </row>
-    <row r="50" spans="1:30" ht="17.25">
+      <c r="AE49" s="2"/>
+    </row>
+    <row r="50" spans="1:31" ht="17.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -3023,12 +3172,14 @@
         <v>42</v>
       </c>
       <c r="G50" s="9">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3050,8 +3201,9 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
-    </row>
-    <row r="51" spans="1:30" ht="17.25">
+      <c r="AE50" s="2"/>
+    </row>
+    <row r="51" spans="1:31" ht="17.25">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -3071,12 +3223,14 @@
         <v>0</v>
       </c>
       <c r="G51" s="9">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3098,8 +3252,9 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
-    </row>
-    <row r="52" spans="1:30" ht="17.25">
+      <c r="AE51" s="2"/>
+    </row>
+    <row r="52" spans="1:31" ht="17.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -3119,12 +3274,14 @@
         <v>0</v>
       </c>
       <c r="G52" s="9">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -3146,8 +3303,9 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
-    </row>
-    <row r="53" spans="1:30" ht="17.25">
+      <c r="AE52" s="2"/>
+    </row>
+    <row r="53" spans="1:31" ht="17.25">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3156,7 +3314,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="2"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -3178,8 +3336,9 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
-    </row>
-    <row r="54" spans="1:30" ht="17.25">
+      <c r="AE53" s="2"/>
+    </row>
+    <row r="54" spans="1:31" ht="17.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3188,7 +3347,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="2"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -3210,8 +3369,9 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
-    </row>
-    <row r="55" spans="1:30" ht="17.25">
+      <c r="AE54" s="2"/>
+    </row>
+    <row r="55" spans="1:31" ht="17.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3220,7 +3380,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="2"/>
+      <c r="I55" s="7"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -3242,8 +3402,9 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
-    </row>
-    <row r="56" spans="1:30" ht="17.25">
+      <c r="AE55" s="2"/>
+    </row>
+    <row r="56" spans="1:31" ht="17.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3251,8 +3412,8 @@
       <c r="E56" s="2"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="2"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -3274,8 +3435,9 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
-    </row>
-    <row r="57" spans="1:30" ht="17.25">
+      <c r="AE56" s="2"/>
+    </row>
+    <row r="57" spans="1:31" ht="17.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3283,8 +3445,8 @@
       <c r="E57" s="2"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="2"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -3306,8 +3468,9 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
-    </row>
-    <row r="58" spans="1:30" ht="17.25">
+      <c r="AE57" s="2"/>
+    </row>
+    <row r="58" spans="1:31" ht="17.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3315,8 +3478,8 @@
       <c r="E58" s="2"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="2"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -3338,8 +3501,9 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
-    </row>
-    <row r="59" spans="1:30" ht="17.25">
+      <c r="AE58" s="2"/>
+    </row>
+    <row r="59" spans="1:31" ht="17.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3347,8 +3511,8 @@
       <c r="E59" s="2"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="2"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -3370,8 +3534,9 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
-    </row>
-    <row r="60" spans="1:30" ht="17.25">
+      <c r="AE59" s="2"/>
+    </row>
+    <row r="60" spans="1:31" ht="17.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3379,8 +3544,8 @@
       <c r="E60" s="2"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="2"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -3402,8 +3567,9 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
-    </row>
-    <row r="61" spans="1:30" ht="17.25">
+      <c r="AE60" s="2"/>
+    </row>
+    <row r="61" spans="1:31" ht="17.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3411,8 +3577,8 @@
       <c r="E61" s="2"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="2"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -3434,8 +3600,9 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
-    </row>
-    <row r="62" spans="1:30" ht="17.25">
+      <c r="AE61" s="2"/>
+    </row>
+    <row r="62" spans="1:31" ht="17.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3443,8 +3610,8 @@
       <c r="E62" s="2"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="2"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3466,8 +3633,9 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
-    </row>
-    <row r="63" spans="1:30" ht="17.25">
+      <c r="AE62" s="2"/>
+    </row>
+    <row r="63" spans="1:31" ht="17.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3475,8 +3643,8 @@
       <c r="E63" s="2"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="2"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3498,8 +3666,9 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
-    </row>
-    <row r="64" spans="1:30" ht="17.25">
+      <c r="AE63" s="2"/>
+    </row>
+    <row r="64" spans="1:31" ht="17.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3507,8 +3676,8 @@
       <c r="E64" s="2"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="2"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -3530,8 +3699,9 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
-    </row>
-    <row r="65" spans="1:30" ht="17.25">
+      <c r="AE64" s="2"/>
+    </row>
+    <row r="65" spans="1:31" ht="17.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3539,8 +3709,8 @@
       <c r="E65" s="2"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="2"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3562,8 +3732,9 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
-    </row>
-    <row r="66" spans="1:30" ht="17.25">
+      <c r="AE65" s="2"/>
+    </row>
+    <row r="66" spans="1:31" ht="17.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3571,8 +3742,8 @@
       <c r="E66" s="2"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="2"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3594,8 +3765,9 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
-    </row>
-    <row r="67" spans="1:30" ht="17.25">
+      <c r="AE66" s="2"/>
+    </row>
+    <row r="67" spans="1:31" ht="17.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3603,8 +3775,8 @@
       <c r="E67" s="2"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="2"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -3626,8 +3798,9 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
-    </row>
-    <row r="68" spans="1:30" ht="17.25">
+      <c r="AE67" s="2"/>
+    </row>
+    <row r="68" spans="1:31" ht="17.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3635,8 +3808,8 @@
       <c r="E68" s="2"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="2"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3658,8 +3831,9 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
-    </row>
-    <row r="69" spans="1:30" ht="17.25">
+      <c r="AE68" s="2"/>
+    </row>
+    <row r="69" spans="1:31" ht="17.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3667,8 +3841,8 @@
       <c r="E69" s="2"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="2"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3690,8 +3864,9 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
-    </row>
-    <row r="70" spans="1:30" ht="17.25">
+      <c r="AE69" s="2"/>
+    </row>
+    <row r="70" spans="1:31" ht="17.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3699,8 +3874,8 @@
       <c r="E70" s="2"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="2"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -3722,8 +3897,9 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
-    </row>
-    <row r="71" spans="1:30" ht="17.25">
+      <c r="AE70" s="2"/>
+    </row>
+    <row r="71" spans="1:31" ht="17.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3731,8 +3907,8 @@
       <c r="E71" s="2"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="2"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -3754,8 +3930,9 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
-    </row>
-    <row r="72" spans="1:30" ht="17.25">
+      <c r="AE71" s="2"/>
+    </row>
+    <row r="72" spans="1:31" ht="17.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3763,8 +3940,8 @@
       <c r="E72" s="2"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="2"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="1"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -3786,8 +3963,9 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
-    </row>
-    <row r="73" spans="1:30" ht="17.25">
+      <c r="AE72" s="2"/>
+    </row>
+    <row r="73" spans="1:31" ht="17.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3795,8 +3973,8 @@
       <c r="E73" s="2"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="2"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="1"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -3818,8 +3996,9 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
-    </row>
-    <row r="74" spans="1:30" ht="17.25">
+      <c r="AE73" s="2"/>
+    </row>
+    <row r="74" spans="1:31" ht="17.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3827,8 +4006,8 @@
       <c r="E74" s="2"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="2"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="1"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -3850,8 +4029,9 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
-    </row>
-    <row r="75" spans="1:30" ht="17.25">
+      <c r="AE74" s="2"/>
+    </row>
+    <row r="75" spans="1:31" ht="17.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3859,8 +4039,8 @@
       <c r="E75" s="2"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="2"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="1"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -3882,8 +4062,9 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
-    </row>
-    <row r="76" spans="1:30" ht="17.25">
+      <c r="AE75" s="2"/>
+    </row>
+    <row r="76" spans="1:31" ht="17.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3891,8 +4072,8 @@
       <c r="E76" s="2"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="2"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="1"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -3914,8 +4095,9 @@
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
-    </row>
-    <row r="77" spans="1:30" ht="17.25">
+      <c r="AE76" s="2"/>
+    </row>
+    <row r="77" spans="1:31" ht="17.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3923,8 +4105,8 @@
       <c r="E77" s="2"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="2"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="1"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -3946,8 +4128,9 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
-    </row>
-    <row r="78" spans="1:30" ht="17.25">
+      <c r="AE77" s="2"/>
+    </row>
+    <row r="78" spans="1:31" ht="17.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3955,8 +4138,8 @@
       <c r="E78" s="2"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="2"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="1"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -3978,8 +4161,9 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
-    </row>
-    <row r="79" spans="1:30" ht="17.25">
+      <c r="AE78" s="2"/>
+    </row>
+    <row r="79" spans="1:31" ht="17.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3987,8 +4171,8 @@
       <c r="E79" s="2"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="2"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="1"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -4010,8 +4194,9 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
-    </row>
-    <row r="80" spans="1:30" ht="17.25">
+      <c r="AE79" s="2"/>
+    </row>
+    <row r="80" spans="1:31" ht="17.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4019,8 +4204,8 @@
       <c r="E80" s="2"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="2"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="1"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -4042,8 +4227,9 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
-    </row>
-    <row r="81" spans="1:30" ht="17.25">
+      <c r="AE80" s="2"/>
+    </row>
+    <row r="81" spans="1:31" ht="17.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4051,8 +4237,8 @@
       <c r="E81" s="2"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="2"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="1"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -4074,8 +4260,9 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
-    </row>
-    <row r="82" spans="1:30" ht="17.25">
+      <c r="AE81" s="2"/>
+    </row>
+    <row r="82" spans="1:31" ht="17.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4083,8 +4270,8 @@
       <c r="E82" s="2"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="2"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="1"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -4106,8 +4293,9 @@
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
-    </row>
-    <row r="83" spans="1:30" ht="17.25">
+      <c r="AE82" s="2"/>
+    </row>
+    <row r="83" spans="1:31" ht="17.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4115,8 +4303,8 @@
       <c r="E83" s="2"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="2"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="1"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4138,8 +4326,9 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
-    </row>
-    <row r="84" spans="1:30" ht="17.25">
+      <c r="AE83" s="2"/>
+    </row>
+    <row r="84" spans="1:31" ht="17.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4147,8 +4336,8 @@
       <c r="E84" s="2"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="2"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="1"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -4170,8 +4359,9 @@
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
-    </row>
-    <row r="85" spans="1:30" ht="17.25">
+      <c r="AE84" s="2"/>
+    </row>
+    <row r="85" spans="1:31" ht="17.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4179,8 +4369,8 @@
       <c r="E85" s="2"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="2"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="1"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4202,8 +4392,9 @@
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
-    </row>
-    <row r="86" spans="1:30" ht="17.25">
+      <c r="AE85" s="2"/>
+    </row>
+    <row r="86" spans="1:31" ht="17.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4211,8 +4402,8 @@
       <c r="E86" s="2"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="2"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="1"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4234,8 +4425,9 @@
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
-    </row>
-    <row r="87" spans="1:30" ht="17.25">
+      <c r="AE86" s="2"/>
+    </row>
+    <row r="87" spans="1:31" ht="17.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4243,8 +4435,8 @@
       <c r="E87" s="2"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="2"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="1"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -4266,8 +4458,9 @@
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
-    </row>
-    <row r="88" spans="1:30" ht="17.25">
+      <c r="AE87" s="2"/>
+    </row>
+    <row r="88" spans="1:31" ht="17.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4275,8 +4468,8 @@
       <c r="E88" s="2"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="2"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="1"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4298,8 +4491,9 @@
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
-    </row>
-    <row r="89" spans="1:30" ht="17.25">
+      <c r="AE88" s="2"/>
+    </row>
+    <row r="89" spans="1:31" ht="17.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4307,8 +4501,8 @@
       <c r="E89" s="2"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="2"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="1"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -4330,8 +4524,9 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
-    </row>
-    <row r="90" spans="1:30" ht="17.25">
+      <c r="AE89" s="2"/>
+    </row>
+    <row r="90" spans="1:31" ht="17.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4339,8 +4534,8 @@
       <c r="E90" s="2"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="2"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="1"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -4362,8 +4557,9 @@
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
-    </row>
-    <row r="91" spans="1:30" ht="17.25">
+      <c r="AE90" s="2"/>
+    </row>
+    <row r="91" spans="1:31" ht="17.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4371,8 +4567,8 @@
       <c r="E91" s="2"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="2"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="1"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -4394,8 +4590,9 @@
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
-    </row>
-    <row r="92" spans="1:30" ht="17.25">
+      <c r="AE91" s="2"/>
+    </row>
+    <row r="92" spans="1:31" ht="17.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4403,8 +4600,8 @@
       <c r="E92" s="2"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="2"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="1"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -4426,8 +4623,9 @@
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
-    </row>
-    <row r="93" spans="1:30" ht="17.25">
+      <c r="AE92" s="2"/>
+    </row>
+    <row r="93" spans="1:31" ht="17.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4435,8 +4633,8 @@
       <c r="E93" s="2"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="2"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="1"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -4458,8 +4656,9 @@
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
-    </row>
-    <row r="94" spans="1:30" ht="17.25">
+      <c r="AE93" s="2"/>
+    </row>
+    <row r="94" spans="1:31" ht="17.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4467,8 +4666,8 @@
       <c r="E94" s="2"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="2"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="1"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -4490,8 +4689,9 @@
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
-    </row>
-    <row r="95" spans="1:30" ht="17.25">
+      <c r="AE94" s="2"/>
+    </row>
+    <row r="95" spans="1:31" ht="17.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4499,8 +4699,8 @@
       <c r="E95" s="2"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="2"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="1"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
@@ -4522,8 +4722,9 @@
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
-    </row>
-    <row r="96" spans="1:30" ht="17.25">
+      <c r="AE95" s="2"/>
+    </row>
+    <row r="96" spans="1:31" ht="17.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4531,8 +4732,8 @@
       <c r="E96" s="2"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="2"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="1"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -4554,8 +4755,9 @@
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
-    </row>
-    <row r="97" spans="1:30" ht="17.25">
+      <c r="AE96" s="2"/>
+    </row>
+    <row r="97" spans="1:31" ht="17.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4563,8 +4765,8 @@
       <c r="E97" s="2"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="2"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="1"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
@@ -4586,8 +4788,9 @@
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
-    </row>
-    <row r="98" spans="1:30" ht="17.25">
+      <c r="AE97" s="2"/>
+    </row>
+    <row r="98" spans="1:31" ht="17.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4595,8 +4798,8 @@
       <c r="E98" s="2"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="2"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="1"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
@@ -4618,8 +4821,9 @@
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
-    </row>
-    <row r="99" spans="1:30" ht="17.25">
+      <c r="AE98" s="2"/>
+    </row>
+    <row r="99" spans="1:31" ht="17.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4627,8 +4831,8 @@
       <c r="E99" s="2"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="2"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="1"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -4650,8 +4854,9 @@
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
       <c r="AD99" s="2"/>
-    </row>
-    <row r="100" spans="1:30" ht="17.25">
+      <c r="AE99" s="2"/>
+    </row>
+    <row r="100" spans="1:31" ht="17.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4659,8 +4864,8 @@
       <c r="E100" s="2"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="2"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="1"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -4682,8 +4887,9 @@
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
-    </row>
-    <row r="101" spans="1:30" ht="17.25">
+      <c r="AE100" s="2"/>
+    </row>
+    <row r="101" spans="1:31" ht="17.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4691,8 +4897,8 @@
       <c r="E101" s="2"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="2"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="1"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -4714,8 +4920,9 @@
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
-    </row>
-    <row r="102" spans="1:30" ht="17.25">
+      <c r="AE101" s="2"/>
+    </row>
+    <row r="102" spans="1:31" ht="17.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4723,8 +4930,8 @@
       <c r="E102" s="2"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="2"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="1"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -4746,8 +4953,9 @@
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
-    </row>
-    <row r="103" spans="1:30" ht="17.25">
+      <c r="AE102" s="2"/>
+    </row>
+    <row r="103" spans="1:31" ht="17.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4755,8 +4963,8 @@
       <c r="E103" s="2"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="2"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="1"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -4778,8 +4986,9 @@
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
-    </row>
-    <row r="104" spans="1:30" ht="17.25">
+      <c r="AE103" s="2"/>
+    </row>
+    <row r="104" spans="1:31" ht="17.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4787,8 +4996,8 @@
       <c r="E104" s="2"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="2"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="1"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
@@ -4810,8 +5019,9 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
-    </row>
-    <row r="105" spans="1:30" ht="17.25">
+      <c r="AE104" s="2"/>
+    </row>
+    <row r="105" spans="1:31" ht="17.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4819,8 +5029,8 @@
       <c r="E105" s="2"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="2"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="1"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -4842,8 +5052,9 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
-    </row>
-    <row r="106" spans="1:30" ht="17.25">
+      <c r="AE105" s="2"/>
+    </row>
+    <row r="106" spans="1:31" ht="17.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4851,8 +5062,8 @@
       <c r="E106" s="2"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="2"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="1"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
@@ -4874,8 +5085,9 @@
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
-    </row>
-    <row r="107" spans="1:30" ht="17.25">
+      <c r="AE106" s="2"/>
+    </row>
+    <row r="107" spans="1:31" ht="17.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4883,8 +5095,8 @@
       <c r="E107" s="2"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="2"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="1"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
@@ -4906,8 +5118,9 @@
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
-    </row>
-    <row r="108" spans="1:30" ht="17.25">
+      <c r="AE107" s="2"/>
+    </row>
+    <row r="108" spans="1:31" ht="17.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4915,8 +5128,8 @@
       <c r="E108" s="2"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="2"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="1"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -4938,8 +5151,9 @@
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
-    </row>
-    <row r="109" spans="1:30" ht="17.25">
+      <c r="AE108" s="2"/>
+    </row>
+    <row r="109" spans="1:31" ht="17.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4947,8 +5161,8 @@
       <c r="E109" s="2"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="2"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="1"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
@@ -4970,8 +5184,9 @@
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
-    </row>
-    <row r="110" spans="1:30" ht="17.25">
+      <c r="AE109" s="2"/>
+    </row>
+    <row r="110" spans="1:31" ht="17.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4979,8 +5194,8 @@
       <c r="E110" s="2"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="2"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="1"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -5002,8 +5217,9 @@
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
       <c r="AD110" s="2"/>
-    </row>
-    <row r="111" spans="1:30" ht="17.25">
+      <c r="AE110" s="2"/>
+    </row>
+    <row r="111" spans="1:31" ht="17.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5011,8 +5227,8 @@
       <c r="E111" s="2"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="2"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="1"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
@@ -5034,8 +5250,9 @@
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
-    </row>
-    <row r="112" spans="1:30" ht="17.25">
+      <c r="AE111" s="2"/>
+    </row>
+    <row r="112" spans="1:31" ht="17.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5043,8 +5260,8 @@
       <c r="E112" s="2"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="2"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="1"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -5066,8 +5283,9 @@
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
       <c r="AD112" s="2"/>
-    </row>
-    <row r="113" spans="1:30" ht="17.25">
+      <c r="AE112" s="2"/>
+    </row>
+    <row r="113" spans="1:31" ht="17.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5075,8 +5293,8 @@
       <c r="E113" s="2"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="2"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="1"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
@@ -5098,8 +5316,9 @@
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
-    </row>
-    <row r="114" spans="1:30" ht="17.25">
+      <c r="AE113" s="2"/>
+    </row>
+    <row r="114" spans="1:31" ht="17.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5107,8 +5326,8 @@
       <c r="E114" s="2"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="2"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="1"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -5130,8 +5349,9 @@
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
-    </row>
-    <row r="115" spans="1:30" ht="17.25">
+      <c r="AE114" s="2"/>
+    </row>
+    <row r="115" spans="1:31" ht="17.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5139,8 +5359,8 @@
       <c r="E115" s="2"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="2"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="1"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -5162,8 +5382,9 @@
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
-    </row>
-    <row r="116" spans="1:30" ht="17.25">
+      <c r="AE115" s="2"/>
+    </row>
+    <row r="116" spans="1:31" ht="17.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5171,8 +5392,8 @@
       <c r="E116" s="2"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="2"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="1"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -5194,8 +5415,9 @@
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
-    </row>
-    <row r="117" spans="1:30" ht="17.25">
+      <c r="AE116" s="2"/>
+    </row>
+    <row r="117" spans="1:31" ht="17.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5203,8 +5425,8 @@
       <c r="E117" s="2"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="2"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="1"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -5226,8 +5448,9 @@
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
       <c r="AD117" s="2"/>
-    </row>
-    <row r="118" spans="1:30" ht="17.25">
+      <c r="AE117" s="2"/>
+    </row>
+    <row r="118" spans="1:31" ht="17.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5235,8 +5458,8 @@
       <c r="E118" s="2"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="2"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="1"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -5258,8 +5481,9 @@
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
       <c r="AD118" s="2"/>
-    </row>
-    <row r="119" spans="1:30" ht="17.25">
+      <c r="AE118" s="2"/>
+    </row>
+    <row r="119" spans="1:31" ht="17.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5267,8 +5491,8 @@
       <c r="E119" s="2"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="2"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="1"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -5290,8 +5514,9 @@
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
-    </row>
-    <row r="120" spans="1:30" ht="17.25">
+      <c r="AE119" s="2"/>
+    </row>
+    <row r="120" spans="1:31" ht="17.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5299,8 +5524,8 @@
       <c r="E120" s="2"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="2"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="1"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
@@ -5322,8 +5547,9 @@
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
       <c r="AD120" s="2"/>
-    </row>
-    <row r="121" spans="1:30" ht="17.25">
+      <c r="AE120" s="2"/>
+    </row>
+    <row r="121" spans="1:31" ht="17.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5331,8 +5557,8 @@
       <c r="E121" s="2"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="2"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="1"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -5354,8 +5580,9 @@
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
-    </row>
-    <row r="122" spans="1:30" ht="17.25">
+      <c r="AE121" s="2"/>
+    </row>
+    <row r="122" spans="1:31" ht="17.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5363,8 +5590,8 @@
       <c r="E122" s="2"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="2"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="1"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
@@ -5386,8 +5613,9 @@
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
       <c r="AD122" s="2"/>
-    </row>
-    <row r="123" spans="1:30" ht="17.25">
+      <c r="AE122" s="2"/>
+    </row>
+    <row r="123" spans="1:31" ht="17.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5395,8 +5623,8 @@
       <c r="E123" s="2"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="2"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="1"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -5418,8 +5646,9 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
       <c r="AD123" s="2"/>
-    </row>
-    <row r="124" spans="1:30" ht="17.25">
+      <c r="AE123" s="2"/>
+    </row>
+    <row r="124" spans="1:31" ht="17.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5427,8 +5656,8 @@
       <c r="E124" s="2"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="2"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="1"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
@@ -5450,8 +5679,9 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
       <c r="AD124" s="2"/>
-    </row>
-    <row r="125" spans="1:30" ht="17.25">
+      <c r="AE124" s="2"/>
+    </row>
+    <row r="125" spans="1:31" ht="17.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5459,8 +5689,8 @@
       <c r="E125" s="2"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="2"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="1"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
@@ -5482,8 +5712,9 @@
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
-    </row>
-    <row r="126" spans="1:30" ht="17.25">
+      <c r="AE125" s="2"/>
+    </row>
+    <row r="126" spans="1:31" ht="17.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5491,8 +5722,8 @@
       <c r="E126" s="2"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="2"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="1"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
@@ -5514,8 +5745,9 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
-    </row>
-    <row r="127" spans="1:30" ht="17.25">
+      <c r="AE126" s="2"/>
+    </row>
+    <row r="127" spans="1:31" ht="17.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5523,8 +5755,8 @@
       <c r="E127" s="2"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="2"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="1"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
@@ -5546,8 +5778,9 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
-    </row>
-    <row r="128" spans="1:30" ht="17.25">
+      <c r="AE127" s="2"/>
+    </row>
+    <row r="128" spans="1:31" ht="17.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5555,8 +5788,8 @@
       <c r="E128" s="2"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="2"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="1"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
@@ -5578,8 +5811,9 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
-    </row>
-    <row r="129" spans="1:30" ht="17.25">
+      <c r="AE128" s="2"/>
+    </row>
+    <row r="129" spans="1:31" ht="17.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5587,8 +5821,8 @@
       <c r="E129" s="2"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="2"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="1"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
@@ -5610,8 +5844,9 @@
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
       <c r="AD129" s="2"/>
-    </row>
-    <row r="130" spans="1:30" ht="17.25">
+      <c r="AE129" s="2"/>
+    </row>
+    <row r="130" spans="1:31" ht="17.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5619,8 +5854,8 @@
       <c r="E130" s="2"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="2"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="1"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
@@ -5642,8 +5877,9 @@
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
-    </row>
-    <row r="131" spans="1:30" ht="17.25">
+      <c r="AE130" s="2"/>
+    </row>
+    <row r="131" spans="1:31" ht="17.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5651,8 +5887,8 @@
       <c r="E131" s="2"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="2"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="1"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
@@ -5674,8 +5910,9 @@
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
       <c r="AD131" s="2"/>
-    </row>
-    <row r="132" spans="1:30" ht="17.25">
+      <c r="AE131" s="2"/>
+    </row>
+    <row r="132" spans="1:31" ht="17.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5683,8 +5920,8 @@
       <c r="E132" s="2"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="2"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="1"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
@@ -5706,8 +5943,9 @@
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
       <c r="AD132" s="2"/>
-    </row>
-    <row r="133" spans="1:30" ht="17.25">
+      <c r="AE132" s="2"/>
+    </row>
+    <row r="133" spans="1:31" ht="17.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5715,8 +5953,8 @@
       <c r="E133" s="2"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="2"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="1"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
@@ -5738,8 +5976,9 @@
       <c r="AB133" s="2"/>
       <c r="AC133" s="2"/>
       <c r="AD133" s="2"/>
-    </row>
-    <row r="134" spans="1:30" ht="17.25">
+      <c r="AE133" s="2"/>
+    </row>
+    <row r="134" spans="1:31" ht="17.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5747,8 +5986,8 @@
       <c r="E134" s="2"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="2"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="1"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
@@ -5770,8 +6009,9 @@
       <c r="AB134" s="2"/>
       <c r="AC134" s="2"/>
       <c r="AD134" s="2"/>
-    </row>
-    <row r="135" spans="1:30" ht="17.25">
+      <c r="AE134" s="2"/>
+    </row>
+    <row r="135" spans="1:31" ht="17.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5779,8 +6019,8 @@
       <c r="E135" s="2"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="2"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="1"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
@@ -5802,8 +6042,9 @@
       <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
-    </row>
-    <row r="136" spans="1:30" ht="17.25">
+      <c r="AE135" s="2"/>
+    </row>
+    <row r="136" spans="1:31" ht="17.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5811,8 +6052,8 @@
       <c r="E136" s="2"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="2"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="1"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
@@ -5834,8 +6075,9 @@
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
-    </row>
-    <row r="137" spans="1:30" ht="17.25">
+      <c r="AE136" s="2"/>
+    </row>
+    <row r="137" spans="1:31" ht="17.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5843,8 +6085,8 @@
       <c r="E137" s="2"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="2"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="1"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
@@ -5866,8 +6108,9 @@
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
       <c r="AD137" s="2"/>
-    </row>
-    <row r="138" spans="1:30" ht="17.25">
+      <c r="AE137" s="2"/>
+    </row>
+    <row r="138" spans="1:31" ht="17.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5875,8 +6118,8 @@
       <c r="E138" s="2"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="2"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="1"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
@@ -5898,8 +6141,9 @@
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
       <c r="AD138" s="2"/>
-    </row>
-    <row r="139" spans="1:30" ht="17.25">
+      <c r="AE138" s="2"/>
+    </row>
+    <row r="139" spans="1:31" ht="17.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5907,8 +6151,8 @@
       <c r="E139" s="2"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="2"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="1"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
@@ -5930,8 +6174,9 @@
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
       <c r="AD139" s="2"/>
-    </row>
-    <row r="140" spans="1:30" ht="17.25">
+      <c r="AE139" s="2"/>
+    </row>
+    <row r="140" spans="1:31" ht="17.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5939,8 +6184,8 @@
       <c r="E140" s="2"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="2"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="1"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
@@ -5962,8 +6207,9 @@
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
       <c r="AD140" s="2"/>
-    </row>
-    <row r="141" spans="1:30" ht="17.25">
+      <c r="AE140" s="2"/>
+    </row>
+    <row r="141" spans="1:31" ht="17.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5971,8 +6217,8 @@
       <c r="E141" s="2"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="2"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="1"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
@@ -5994,8 +6240,9 @@
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
       <c r="AD141" s="2"/>
-    </row>
-    <row r="142" spans="1:30" ht="17.25">
+      <c r="AE141" s="2"/>
+    </row>
+    <row r="142" spans="1:31" ht="17.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6003,8 +6250,8 @@
       <c r="E142" s="2"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="2"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="1"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
@@ -6026,8 +6273,9 @@
       <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
       <c r="AD142" s="2"/>
-    </row>
-    <row r="143" spans="1:30" ht="17.25">
+      <c r="AE142" s="2"/>
+    </row>
+    <row r="143" spans="1:31" ht="17.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6035,8 +6283,8 @@
       <c r="E143" s="2"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="2"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="1"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
@@ -6058,8 +6306,9 @@
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
       <c r="AD143" s="2"/>
-    </row>
-    <row r="144" spans="1:30" ht="17.25">
+      <c r="AE143" s="2"/>
+    </row>
+    <row r="144" spans="1:31" ht="17.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6067,8 +6316,8 @@
       <c r="E144" s="2"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="2"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="1"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
@@ -6090,8 +6339,9 @@
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
       <c r="AD144" s="2"/>
-    </row>
-    <row r="145" spans="1:30" ht="17.25">
+      <c r="AE144" s="2"/>
+    </row>
+    <row r="145" spans="1:31" ht="17.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6099,8 +6349,8 @@
       <c r="E145" s="2"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="2"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="1"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -6122,8 +6372,9 @@
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
       <c r="AD145" s="2"/>
-    </row>
-    <row r="146" spans="1:30" ht="17.25">
+      <c r="AE145" s="2"/>
+    </row>
+    <row r="146" spans="1:31" ht="17.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6131,8 +6382,8 @@
       <c r="E146" s="2"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="2"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="1"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
@@ -6154,8 +6405,9 @@
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
       <c r="AD146" s="2"/>
-    </row>
-    <row r="147" spans="1:30" ht="17.25">
+      <c r="AE146" s="2"/>
+    </row>
+    <row r="147" spans="1:31" ht="17.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6163,8 +6415,8 @@
       <c r="E147" s="2"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="2"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="1"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
@@ -6186,8 +6438,9 @@
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
       <c r="AD147" s="2"/>
-    </row>
-    <row r="148" spans="1:30" ht="17.25">
+      <c r="AE147" s="2"/>
+    </row>
+    <row r="148" spans="1:31" ht="17.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6195,8 +6448,8 @@
       <c r="E148" s="2"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="2"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="1"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
@@ -6218,8 +6471,9 @@
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
       <c r="AD148" s="2"/>
-    </row>
-    <row r="149" spans="1:30" ht="17.25">
+      <c r="AE148" s="2"/>
+    </row>
+    <row r="149" spans="1:31" ht="17.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6227,8 +6481,8 @@
       <c r="E149" s="2"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="2"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="1"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
@@ -6250,8 +6504,9 @@
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
       <c r="AD149" s="2"/>
-    </row>
-    <row r="150" spans="1:30" ht="17.25">
+      <c r="AE149" s="2"/>
+    </row>
+    <row r="150" spans="1:31" ht="17.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6259,8 +6514,8 @@
       <c r="E150" s="2"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="2"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="1"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
@@ -6282,8 +6537,9 @@
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
       <c r="AD150" s="2"/>
-    </row>
-    <row r="151" spans="1:30" ht="17.25">
+      <c r="AE150" s="2"/>
+    </row>
+    <row r="151" spans="1:31" ht="17.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6291,8 +6547,8 @@
       <c r="E151" s="2"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="2"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="1"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
@@ -6314,8 +6570,9 @@
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
       <c r="AD151" s="2"/>
-    </row>
-    <row r="152" spans="1:30" ht="17.25">
+      <c r="AE151" s="2"/>
+    </row>
+    <row r="152" spans="1:31" ht="17.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6323,8 +6580,8 @@
       <c r="E152" s="2"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="2"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="1"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
@@ -6346,8 +6603,9 @@
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
       <c r="AD152" s="2"/>
-    </row>
-    <row r="153" spans="1:30" ht="17.25">
+      <c r="AE152" s="2"/>
+    </row>
+    <row r="153" spans="1:31" ht="17.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6355,8 +6613,8 @@
       <c r="E153" s="2"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="2"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="1"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
@@ -6378,8 +6636,9 @@
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
       <c r="AD153" s="2"/>
-    </row>
-    <row r="154" spans="1:30" ht="17.25">
+      <c r="AE153" s="2"/>
+    </row>
+    <row r="154" spans="1:31" ht="17.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6387,8 +6646,8 @@
       <c r="E154" s="2"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="2"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="1"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
@@ -6410,8 +6669,9 @@
       <c r="AB154" s="2"/>
       <c r="AC154" s="2"/>
       <c r="AD154" s="2"/>
-    </row>
-    <row r="155" spans="1:30" ht="17.25">
+      <c r="AE154" s="2"/>
+    </row>
+    <row r="155" spans="1:31" ht="17.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6419,8 +6679,8 @@
       <c r="E155" s="2"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="2"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="1"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
@@ -6442,8 +6702,9 @@
       <c r="AB155" s="2"/>
       <c r="AC155" s="2"/>
       <c r="AD155" s="2"/>
-    </row>
-    <row r="156" spans="1:30" ht="17.25">
+      <c r="AE155" s="2"/>
+    </row>
+    <row r="156" spans="1:31" ht="17.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6451,8 +6712,8 @@
       <c r="E156" s="2"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="2"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="1"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
@@ -6474,8 +6735,9 @@
       <c r="AB156" s="2"/>
       <c r="AC156" s="2"/>
       <c r="AD156" s="2"/>
-    </row>
-    <row r="157" spans="1:30" ht="17.25">
+      <c r="AE156" s="2"/>
+    </row>
+    <row r="157" spans="1:31" ht="17.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6483,8 +6745,8 @@
       <c r="E157" s="2"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="2"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="1"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
@@ -6506,8 +6768,9 @@
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
       <c r="AD157" s="2"/>
-    </row>
-    <row r="158" spans="1:30" ht="17.25">
+      <c r="AE157" s="2"/>
+    </row>
+    <row r="158" spans="1:31" ht="17.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6515,8 +6778,8 @@
       <c r="E158" s="2"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="2"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="1"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -6538,8 +6801,9 @@
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
       <c r="AD158" s="2"/>
-    </row>
-    <row r="159" spans="1:30" ht="17.25">
+      <c r="AE158" s="2"/>
+    </row>
+    <row r="159" spans="1:31" ht="17.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6547,8 +6811,8 @@
       <c r="E159" s="2"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="2"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="1"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
@@ -6570,8 +6834,9 @@
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
       <c r="AD159" s="2"/>
-    </row>
-    <row r="160" spans="1:30" ht="17.25">
+      <c r="AE159" s="2"/>
+    </row>
+    <row r="160" spans="1:31" ht="17.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6579,8 +6844,8 @@
       <c r="E160" s="2"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="2"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="1"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -6602,8 +6867,9 @@
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
       <c r="AD160" s="2"/>
-    </row>
-    <row r="161" spans="1:30" ht="17.25">
+      <c r="AE160" s="2"/>
+    </row>
+    <row r="161" spans="1:31" ht="17.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6611,8 +6877,8 @@
       <c r="E161" s="2"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="2"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="1"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -6634,8 +6900,9 @@
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
       <c r="AD161" s="2"/>
-    </row>
-    <row r="162" spans="1:30" ht="17.25">
+      <c r="AE161" s="2"/>
+    </row>
+    <row r="162" spans="1:31" ht="17.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6643,8 +6910,8 @@
       <c r="E162" s="2"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="2"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="1"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -6666,8 +6933,9 @@
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
       <c r="AD162" s="2"/>
-    </row>
-    <row r="163" spans="1:30" ht="17.25">
+      <c r="AE162" s="2"/>
+    </row>
+    <row r="163" spans="1:31" ht="17.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6675,8 +6943,8 @@
       <c r="E163" s="2"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="2"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="1"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -6698,8 +6966,9 @@
       <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
       <c r="AD163" s="2"/>
-    </row>
-    <row r="164" spans="1:30" ht="17.25">
+      <c r="AE163" s="2"/>
+    </row>
+    <row r="164" spans="1:31" ht="17.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6707,8 +6976,8 @@
       <c r="E164" s="2"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="2"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="1"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
@@ -6730,8 +6999,9 @@
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
       <c r="AD164" s="2"/>
-    </row>
-    <row r="165" spans="1:30" ht="17.25">
+      <c r="AE164" s="2"/>
+    </row>
+    <row r="165" spans="1:31" ht="17.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6739,8 +7009,8 @@
       <c r="E165" s="2"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="2"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="1"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
@@ -6762,8 +7032,9 @@
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
       <c r="AD165" s="2"/>
-    </row>
-    <row r="166" spans="1:30" ht="17.25">
+      <c r="AE165" s="2"/>
+    </row>
+    <row r="166" spans="1:31" ht="17.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6771,8 +7042,8 @@
       <c r="E166" s="2"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="2"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="1"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
@@ -6794,8 +7065,9 @@
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
       <c r="AD166" s="2"/>
-    </row>
-    <row r="167" spans="1:30" ht="17.25">
+      <c r="AE166" s="2"/>
+    </row>
+    <row r="167" spans="1:31" ht="17.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6803,8 +7075,8 @@
       <c r="E167" s="2"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="2"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="1"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
@@ -6826,8 +7098,9 @@
       <c r="AB167" s="2"/>
       <c r="AC167" s="2"/>
       <c r="AD167" s="2"/>
-    </row>
-    <row r="168" spans="1:30" ht="17.25">
+      <c r="AE167" s="2"/>
+    </row>
+    <row r="168" spans="1:31" ht="17.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6835,8 +7108,8 @@
       <c r="E168" s="2"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="2"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="1"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
@@ -6858,8 +7131,9 @@
       <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
       <c r="AD168" s="2"/>
-    </row>
-    <row r="169" spans="1:30" ht="17.25">
+      <c r="AE168" s="2"/>
+    </row>
+    <row r="169" spans="1:31" ht="17.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6867,8 +7141,8 @@
       <c r="E169" s="2"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="2"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="1"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
@@ -6890,8 +7164,9 @@
       <c r="AB169" s="2"/>
       <c r="AC169" s="2"/>
       <c r="AD169" s="2"/>
-    </row>
-    <row r="170" spans="1:30" ht="17.25">
+      <c r="AE169" s="2"/>
+    </row>
+    <row r="170" spans="1:31" ht="17.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6899,8 +7174,8 @@
       <c r="E170" s="2"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="2"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="1"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
@@ -6922,8 +7197,9 @@
       <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
       <c r="AD170" s="2"/>
-    </row>
-    <row r="171" spans="1:30" ht="17.25">
+      <c r="AE170" s="2"/>
+    </row>
+    <row r="171" spans="1:31" ht="17.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6931,8 +7207,8 @@
       <c r="E171" s="2"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="2"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="1"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
@@ -6954,8 +7230,9 @@
       <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
       <c r="AD171" s="2"/>
-    </row>
-    <row r="172" spans="1:30" ht="17.25">
+      <c r="AE171" s="2"/>
+    </row>
+    <row r="172" spans="1:31" ht="17.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6963,8 +7240,8 @@
       <c r="E172" s="2"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="2"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="1"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
@@ -6986,8 +7263,9 @@
       <c r="AB172" s="2"/>
       <c r="AC172" s="2"/>
       <c r="AD172" s="2"/>
-    </row>
-    <row r="173" spans="1:30" ht="17.25">
+      <c r="AE172" s="2"/>
+    </row>
+    <row r="173" spans="1:31" ht="17.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6995,8 +7273,8 @@
       <c r="E173" s="2"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="2"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="1"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
@@ -7018,8 +7296,9 @@
       <c r="AB173" s="2"/>
       <c r="AC173" s="2"/>
       <c r="AD173" s="2"/>
-    </row>
-    <row r="174" spans="1:30" ht="17.25">
+      <c r="AE173" s="2"/>
+    </row>
+    <row r="174" spans="1:31" ht="17.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7027,8 +7306,8 @@
       <c r="E174" s="2"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="2"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="1"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
@@ -7050,8 +7329,9 @@
       <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
       <c r="AD174" s="2"/>
-    </row>
-    <row r="175" spans="1:30" ht="17.25">
+      <c r="AE174" s="2"/>
+    </row>
+    <row r="175" spans="1:31" ht="17.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7059,8 +7339,8 @@
       <c r="E175" s="2"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="2"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="1"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
@@ -7082,8 +7362,9 @@
       <c r="AB175" s="2"/>
       <c r="AC175" s="2"/>
       <c r="AD175" s="2"/>
-    </row>
-    <row r="176" spans="1:30" ht="17.25">
+      <c r="AE175" s="2"/>
+    </row>
+    <row r="176" spans="1:31" ht="17.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7091,8 +7372,8 @@
       <c r="E176" s="2"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="2"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="1"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
@@ -7114,8 +7395,9 @@
       <c r="AB176" s="2"/>
       <c r="AC176" s="2"/>
       <c r="AD176" s="2"/>
-    </row>
-    <row r="177" spans="1:30" ht="17.25">
+      <c r="AE176" s="2"/>
+    </row>
+    <row r="177" spans="1:31" ht="17.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7123,8 +7405,8 @@
       <c r="E177" s="2"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="2"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="1"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
@@ -7146,8 +7428,9 @@
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
       <c r="AD177" s="2"/>
-    </row>
-    <row r="178" spans="1:30" ht="17.25">
+      <c r="AE177" s="2"/>
+    </row>
+    <row r="178" spans="1:31" ht="17.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7155,8 +7438,8 @@
       <c r="E178" s="2"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="2"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="1"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
@@ -7178,8 +7461,9 @@
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
       <c r="AD178" s="2"/>
-    </row>
-    <row r="179" spans="1:30" ht="17.25">
+      <c r="AE178" s="2"/>
+    </row>
+    <row r="179" spans="1:31" ht="17.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7187,8 +7471,8 @@
       <c r="E179" s="2"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="2"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="1"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -7210,8 +7494,9 @@
       <c r="AB179" s="2"/>
       <c r="AC179" s="2"/>
       <c r="AD179" s="2"/>
-    </row>
-    <row r="180" spans="1:30" ht="17.25">
+      <c r="AE179" s="2"/>
+    </row>
+    <row r="180" spans="1:31" ht="17.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7219,8 +7504,8 @@
       <c r="E180" s="2"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="2"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="1"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
@@ -7242,8 +7527,9 @@
       <c r="AB180" s="2"/>
       <c r="AC180" s="2"/>
       <c r="AD180" s="2"/>
-    </row>
-    <row r="181" spans="1:30" ht="17.25">
+      <c r="AE180" s="2"/>
+    </row>
+    <row r="181" spans="1:31" ht="17.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7251,8 +7537,8 @@
       <c r="E181" s="2"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="2"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="1"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
@@ -7274,8 +7560,9 @@
       <c r="AB181" s="2"/>
       <c r="AC181" s="2"/>
       <c r="AD181" s="2"/>
-    </row>
-    <row r="182" spans="1:30" ht="17.25">
+      <c r="AE181" s="2"/>
+    </row>
+    <row r="182" spans="1:31" ht="17.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7283,8 +7570,8 @@
       <c r="E182" s="2"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="2"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="1"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
@@ -7306,8 +7593,9 @@
       <c r="AB182" s="2"/>
       <c r="AC182" s="2"/>
       <c r="AD182" s="2"/>
-    </row>
-    <row r="183" spans="1:30" ht="17.25">
+      <c r="AE182" s="2"/>
+    </row>
+    <row r="183" spans="1:31" ht="17.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7315,8 +7603,8 @@
       <c r="E183" s="2"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="2"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="1"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
@@ -7338,8 +7626,9 @@
       <c r="AB183" s="2"/>
       <c r="AC183" s="2"/>
       <c r="AD183" s="2"/>
-    </row>
-    <row r="184" spans="1:30" ht="17.25">
+      <c r="AE183" s="2"/>
+    </row>
+    <row r="184" spans="1:31" ht="17.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7347,8 +7636,8 @@
       <c r="E184" s="2"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="2"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="1"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
@@ -7370,8 +7659,9 @@
       <c r="AB184" s="2"/>
       <c r="AC184" s="2"/>
       <c r="AD184" s="2"/>
-    </row>
-    <row r="185" spans="1:30" ht="17.25">
+      <c r="AE184" s="2"/>
+    </row>
+    <row r="185" spans="1:31" ht="17.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7379,8 +7669,8 @@
       <c r="E185" s="2"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="2"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="1"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
@@ -7402,8 +7692,9 @@
       <c r="AB185" s="2"/>
       <c r="AC185" s="2"/>
       <c r="AD185" s="2"/>
-    </row>
-    <row r="186" spans="1:30" ht="17.25">
+      <c r="AE185" s="2"/>
+    </row>
+    <row r="186" spans="1:31" ht="17.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7411,8 +7702,8 @@
       <c r="E186" s="2"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="2"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="1"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -7434,8 +7725,9 @@
       <c r="AB186" s="2"/>
       <c r="AC186" s="2"/>
       <c r="AD186" s="2"/>
-    </row>
-    <row r="187" spans="1:30" ht="17.25">
+      <c r="AE186" s="2"/>
+    </row>
+    <row r="187" spans="1:31" ht="17.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7443,8 +7735,8 @@
       <c r="E187" s="2"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="2"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="1"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -7466,8 +7758,9 @@
       <c r="AB187" s="2"/>
       <c r="AC187" s="2"/>
       <c r="AD187" s="2"/>
-    </row>
-    <row r="188" spans="1:30" ht="17.25">
+      <c r="AE187" s="2"/>
+    </row>
+    <row r="188" spans="1:31" ht="17.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7475,8 +7768,8 @@
       <c r="E188" s="2"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="2"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="1"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
@@ -7498,8 +7791,9 @@
       <c r="AB188" s="2"/>
       <c r="AC188" s="2"/>
       <c r="AD188" s="2"/>
-    </row>
-    <row r="189" spans="1:30" ht="17.25">
+      <c r="AE188" s="2"/>
+    </row>
+    <row r="189" spans="1:31" ht="17.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7507,8 +7801,8 @@
       <c r="E189" s="2"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="2"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="1"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -7530,8 +7824,9 @@
       <c r="AB189" s="2"/>
       <c r="AC189" s="2"/>
       <c r="AD189" s="2"/>
-    </row>
-    <row r="190" spans="1:30" ht="17.25">
+      <c r="AE189" s="2"/>
+    </row>
+    <row r="190" spans="1:31" ht="17.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7539,8 +7834,8 @@
       <c r="E190" s="2"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="2"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="1"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
@@ -7562,8 +7857,9 @@
       <c r="AB190" s="2"/>
       <c r="AC190" s="2"/>
       <c r="AD190" s="2"/>
-    </row>
-    <row r="191" spans="1:30" ht="17.25">
+      <c r="AE190" s="2"/>
+    </row>
+    <row r="191" spans="1:31" ht="17.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7571,8 +7867,8 @@
       <c r="E191" s="2"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="2"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="1"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
@@ -7594,8 +7890,9 @@
       <c r="AB191" s="2"/>
       <c r="AC191" s="2"/>
       <c r="AD191" s="2"/>
-    </row>
-    <row r="192" spans="1:30" ht="17.25">
+      <c r="AE191" s="2"/>
+    </row>
+    <row r="192" spans="1:31" ht="17.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7603,8 +7900,8 @@
       <c r="E192" s="2"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="2"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="1"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
@@ -7626,8 +7923,9 @@
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
       <c r="AD192" s="2"/>
-    </row>
-    <row r="193" spans="1:30" ht="17.25">
+      <c r="AE192" s="2"/>
+    </row>
+    <row r="193" spans="1:31" ht="17.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7635,8 +7933,8 @@
       <c r="E193" s="2"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="2"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="1"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
@@ -7658,8 +7956,9 @@
       <c r="AB193" s="2"/>
       <c r="AC193" s="2"/>
       <c r="AD193" s="2"/>
-    </row>
-    <row r="194" spans="1:30" ht="17.25">
+      <c r="AE193" s="2"/>
+    </row>
+    <row r="194" spans="1:31" ht="17.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7667,8 +7966,8 @@
       <c r="E194" s="2"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="2"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="1"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
@@ -7690,8 +7989,9 @@
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
       <c r="AD194" s="2"/>
-    </row>
-    <row r="195" spans="1:30" ht="17.25">
+      <c r="AE194" s="2"/>
+    </row>
+    <row r="195" spans="1:31" ht="17.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7699,8 +7999,8 @@
       <c r="E195" s="2"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="2"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="1"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
@@ -7722,8 +8022,9 @@
       <c r="AB195" s="2"/>
       <c r="AC195" s="2"/>
       <c r="AD195" s="2"/>
-    </row>
-    <row r="196" spans="1:30" ht="17.25">
+      <c r="AE195" s="2"/>
+    </row>
+    <row r="196" spans="1:31" ht="17.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7731,8 +8032,8 @@
       <c r="E196" s="2"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="2"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="1"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
@@ -7754,8 +8055,9 @@
       <c r="AB196" s="2"/>
       <c r="AC196" s="2"/>
       <c r="AD196" s="2"/>
-    </row>
-    <row r="197" spans="1:30" ht="17.25">
+      <c r="AE196" s="2"/>
+    </row>
+    <row r="197" spans="1:31" ht="17.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7763,8 +8065,8 @@
       <c r="E197" s="2"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="2"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="1"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
@@ -7786,8 +8088,9 @@
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
       <c r="AD197" s="2"/>
-    </row>
-    <row r="198" spans="1:30" ht="17.25">
+      <c r="AE197" s="2"/>
+    </row>
+    <row r="198" spans="1:31" ht="17.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7795,8 +8098,8 @@
       <c r="E198" s="2"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="2"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="1"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
@@ -7818,8 +8121,9 @@
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
       <c r="AD198" s="2"/>
-    </row>
-    <row r="199" spans="1:30" ht="17.25">
+      <c r="AE198" s="2"/>
+    </row>
+    <row r="199" spans="1:31" ht="17.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7827,8 +8131,8 @@
       <c r="E199" s="2"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="2"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="1"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
@@ -7850,8 +8154,9 @@
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
       <c r="AD199" s="2"/>
-    </row>
-    <row r="200" spans="1:30" ht="17.25">
+      <c r="AE199" s="2"/>
+    </row>
+    <row r="200" spans="1:31" ht="17.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7859,8 +8164,8 @@
       <c r="E200" s="2"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="2"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="1"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
@@ -7882,8 +8187,9 @@
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
       <c r="AD200" s="2"/>
-    </row>
-    <row r="201" spans="1:30" ht="17.25">
+      <c r="AE200" s="2"/>
+    </row>
+    <row r="201" spans="1:31" ht="17.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7891,8 +8197,8 @@
       <c r="E201" s="2"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="2"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="1"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
@@ -7914,6 +8220,7 @@
       <c r="AB201" s="2"/>
       <c r="AC201" s="2"/>
       <c r="AD201" s="2"/>
+      <c r="AE201" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Resource/剧本/play_1.xlsx
+++ b/Resource/剧本/play_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -641,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>54</v>
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>36</v>

--- a/Resource/剧本/play_1.xlsx
+++ b/Resource/剧本/play_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -641,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="9">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="9">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="9">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="9">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="9">
         <v>0</v>

--- a/Resource/剧本/play_1.xlsx
+++ b/Resource/剧本/play_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>敬启者！</t>
-  </si>
-  <si>
-    <t>answer</t>
   </si>
   <si>
     <t>答案</t>
@@ -242,6 +239,14 @@
   </si>
   <si>
     <t>belongs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0新块，1接上一块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +646,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -662,25 +667,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -719,20 +724,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="I2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -762,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -783,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -813,10 +820,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -864,10 +871,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -915,10 +922,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
@@ -936,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -966,10 +973,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -987,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1017,10 +1024,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -1068,10 +1075,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -1089,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1119,10 +1126,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -1140,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1170,10 +1177,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -1219,10 +1226,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -1240,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1270,10 +1277,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -1291,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1321,10 +1328,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -1342,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1372,10 +1379,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -1393,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1423,10 +1430,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -1444,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1474,10 +1481,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6">
         <v>3</v>
@@ -1495,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1525,10 +1532,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -1576,10 +1583,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6">
         <v>3</v>
@@ -1627,10 +1634,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6">
         <v>3</v>
@@ -1678,10 +1685,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="6">
         <v>3</v>
@@ -1699,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1729,10 +1736,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6">
         <v>3</v>
@@ -1750,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1780,10 +1787,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -1801,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1831,10 +1838,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -1852,7 +1859,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1882,10 +1889,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -1903,7 +1910,7 @@
         <v>22</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1933,10 +1940,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -1954,7 +1961,7 @@
         <v>22</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1984,10 +1991,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6">
         <v>3</v>
@@ -2035,19 +2042,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="6">
         <v>4</v>
       </c>
       <c r="E28" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
@@ -2056,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2086,10 +2093,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -2137,10 +2144,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
@@ -2188,19 +2195,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="6">
         <v>4</v>
       </c>
       <c r="E31" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
@@ -2209,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2239,10 +2246,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -2290,10 +2297,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -2341,10 +2348,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
@@ -2392,10 +2399,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
@@ -2443,10 +2450,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
@@ -2494,10 +2501,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
@@ -2545,10 +2552,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
@@ -2596,10 +2603,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="6">
         <v>5</v>
@@ -2617,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2647,10 +2654,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
@@ -2668,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -2698,19 +2705,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="6">
         <v>4</v>
       </c>
       <c r="E41" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -2719,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2749,10 +2756,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -2800,10 +2807,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="6">
         <v>5</v>
@@ -2821,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -2851,10 +2858,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -2902,16 +2909,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
       </c>
       <c r="E45" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F45" s="9">
         <v>10</v>
@@ -2923,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -2953,10 +2960,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="6">
         <v>2</v>
@@ -3004,10 +3011,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="6">
         <v>1</v>
@@ -3055,10 +3062,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
@@ -3106,10 +3113,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
@@ -3157,19 +3164,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="6">
         <v>4</v>
       </c>
       <c r="E50" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
@@ -3178,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -3208,10 +3215,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" s="6">
         <v>1</v>
@@ -3259,10 +3266,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
